--- a/HeatXCalculations.xlsx
+++ b/HeatXCalculations.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akullman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a97Dr\OneDrive\Documents\College\CHEME_485\TeamA6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_9966B606CD35508A196FBBCFB91F160E1F4092B1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FA92CEE-1B9D-4B4F-84E6-F085F76AD911}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20483" windowHeight="7305"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -119,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,21 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -461,12 +470,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>-62</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -489,19 +498,19 @@
       </c>
       <c r="J2">
         <f>((I2-B2)-(I2-B3))/LN((I2-B2)/(I2-B3))</f>
-        <v>22.680461522249502</v>
+        <v>80.796203954584584</v>
       </c>
       <c r="K2">
         <f>H2/(B6*J2)</f>
-        <v>6.2070121443159874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>18.512815150087583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>-35</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -528,10 +537,10 @@
       </c>
       <c r="K3">
         <f>H3/(B7*J3)</f>
-        <v>1.0234067971868421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14.583546859912499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -563,10 +572,10 @@
       </c>
       <c r="K4">
         <f>H4/(J4*B6)</f>
-        <v>8.755006974577622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>93.021949104887227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -598,15 +607,15 @@
       </c>
       <c r="K5">
         <f>H5/(B7*J5)</f>
-        <v>2.6406748376913685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+        <v>37.629616437102001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>850</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -616,12 +625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1140</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -648,7 +657,7 @@
         <v>53.16882127204596</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -677,7 +686,7 @@
         <v>53.633186880551634</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -705,7 +714,7 @@
         <v>9.5643238111148765</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -717,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>

--- a/HeatXCalculations.xlsx
+++ b/HeatXCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a97Dr\OneDrive\Documents\College\CHEME_485\TeamA6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_9966B606CD35508A196FBBCFB91F160E1F4092B1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FA92CEE-1B9D-4B4F-84E6-F085F76AD911}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_9966B606CD35508A196FBBCFB91F160E1F4092B1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7CFC55FC-58C6-412C-9AC3-6EAA64073315}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>q [cal / sec]</t>
   </si>
@@ -123,6 +123,36 @@
   </si>
   <si>
     <t>Udow</t>
+  </si>
+  <si>
+    <t>E-604</t>
+  </si>
+  <si>
+    <t>heatX refr</t>
+  </si>
+  <si>
+    <t>E-607</t>
+  </si>
+  <si>
+    <t>E-608</t>
+  </si>
+  <si>
+    <t>E-609</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>E-606</t>
+  </si>
+  <si>
+    <t>refr</t>
+  </si>
+  <si>
+    <t>E-605</t>
+  </si>
+  <si>
+    <t>lps</t>
   </si>
 </sst>
 </file>
@@ -440,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +590,7 @@
         <v>-34840.392699999997</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="0">ABS(G4)*4.184</f>
+        <f t="shared" ref="H4:H22" si="0">ABS(G4)*4.184</f>
         <v>145772.2030568</v>
       </c>
       <c r="I4">
@@ -733,7 +763,220 @@
       <c r="B11">
         <v>227</v>
       </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>-163782.1</v>
+      </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>685264.3064</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <f>H11/(J11*80)</f>
+        <v>85.658038300000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>850</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>105539.962</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>441579.201008</v>
+      </c>
+      <c r="J12">
+        <f>20--55.9</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="K12">
+        <f>H12/(J12*B8)</f>
+        <v>72.723847333333339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>44548</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>186388.83199999999</v>
+      </c>
+      <c r="J13">
+        <f>100-22.7</f>
+        <v>77.3</v>
+      </c>
+      <c r="K13">
+        <f>H13/(J13*B8)</f>
+        <v>30.140496765847349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>-144278.114</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>603659.62897600001</v>
+      </c>
+      <c r="J14">
+        <f>((315-B10)-(45-B9))/LN((315-B10)/(45-B9))</f>
+        <v>89.386369213732152</v>
+      </c>
+      <c r="K14">
+        <f>H14/(J14*B8)</f>
+        <v>84.417181596864438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <v>-96908.109700000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>405463.53098480002</v>
+      </c>
+      <c r="I16">
+        <v>-55.904029299999998</v>
+      </c>
+      <c r="J16">
+        <f>ABS(B2-I16)</f>
+        <v>6.0959707000000023</v>
+      </c>
+      <c r="K16">
+        <f>H16/(J16*B12)</f>
+        <v>78.251018956775312</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>109011.31200000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>456103.32940800005</v>
+      </c>
+      <c r="I17">
+        <v>56.737134599999997</v>
+      </c>
+      <c r="J17">
+        <f>B4-I17</f>
+        <v>103.26286540000001</v>
+      </c>
+      <c r="K17">
+        <f>G17/(B8*J17)</f>
+        <v>13.195851138951641</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>610</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20">
+        <v>5947.6336199999996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>24884.899066080001</v>
+      </c>
+      <c r="I20">
+        <v>56.850229499999998</v>
+      </c>
+      <c r="J20">
+        <f>B4-I20</f>
+        <v>103.1497705</v>
+      </c>
+      <c r="K20">
+        <f>H20/(J20*B8)</f>
+        <v>3.0156270519865096</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>611</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>-5946.9176500000003</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>24881.903447600002</v>
+      </c>
+      <c r="I21">
+        <v>53.362084000000003</v>
+      </c>
+      <c r="J21">
+        <f>((I21-B2)-(I21-B3))/LN((I21-B2)/(I21-B3))</f>
+        <v>101.26286989526692</v>
+      </c>
+      <c r="K21">
+        <f>H21/(J21*B8)</f>
+        <v>3.0714495196184188</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
